--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cac khach hang khong phat sinh don hang/CRMFYYY4_Bao cao KH khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cac khach hang khong phat sinh don hang/CRMFYYY4_Bao cao KH khong phat sinh don hang.xlsx
@@ -2002,12 +2002,6 @@
     <t>@SQL0001</t>
   </si>
   <si>
-    <t>@DivisionID @DivisionIDList @FromMonth @FromYear @ToMonth @ToYear @FromDate @ToDate   @IsDate    @UserID</t>
-  </si>
-  <si>
-    <t>Biến môi trường @DivisionIDList @FromMonth @FromYear @ToMonth @ToYear @FromDate @ToDate   @IsDate       Biến môi trường</t>
-  </si>
-  <si>
     <t>Click In</t>
   </si>
   <si>
@@ -2147,35 +2141,53 @@
     <t>Nhận tham số từ màn hình CRMFXXX4 để load báo cáo Khách hàng không phát sinh đơn hàng</t>
   </si>
   <si>
-    <t>EXEC CRMP10107(
+    <t>Thực thi @SQL0001 để in báo cáo Khách hàng không phát sinh đơn hàng</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Notes01</t>
+  </si>
+  <si>
+    <t>Notes02</t>
+  </si>
+  <si>
+    <t>Nhóm khách hàng không phát sinh đơn hàng trong 46&gt;60</t>
+  </si>
+  <si>
+    <t>GroupTime</t>
+  </si>
+  <si>
+    <t>@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate  
+@CheckBox1
+@FromAccountID @ToAccountID 
+@UserID
+@PageNumber
+@PageSize</t>
+  </si>
+  <si>
+    <t>Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
+@@CheckBox1
+@@FromAccountID @@ToAccountID
+Biến môi trường
+@@PageNumber
+@@PageSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC CRMP10107(
  @DivisionID       VARCHAR(50),  
-  @DivisionIDList    NVARCHAR(2000),  
-  @FromMonth        INT,
-  @FromYear          INT,
-  @ToMonth           INT,
-  @ToYear           INT,
+  @DivisionIDList    NVARCHAR(2000), 
   @FromDate         DATETIME,
   @ToDate           DATETIME,
   @IsDate           TINYINT,
-  @UserID  VARCHAR(50))</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0001 để in báo cáo Khách hàng không phát sinh đơn hàng</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Notes01</t>
-  </si>
-  <si>
-    <t>Notes02</t>
-  </si>
-  <si>
-    <t>Nhóm khách hàng không phát sinh đơn hàng trong 46&gt;60</t>
-  </si>
-  <si>
-    <t>GroupTime</t>
+@CheckBox1 TINYINT,
+@FromAccountID       Varchar(50),
+  @ToAccountID         Varchar(50,
+  @UserID  VARCHAR(50),
+@PageNumber INT,
+@PageSize INT)
+</t>
   </si>
 </sst>
 </file>
@@ -3106,183 +3118,183 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3316,6 +3328,24 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3332,6 +3362,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3343,15 +3382,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3375,24 +3405,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3477,17 +3489,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60252</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2987251</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3507,8 +3519,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="695325"/>
-          <a:ext cx="9442377" cy="3752850"/>
+          <a:off x="0" y="647700"/>
+          <a:ext cx="9864301" cy="3952875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4319,65 +4331,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="158"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="160" t="s">
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="159" t="s">
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159" t="s">
+      <c r="H1" s="153"/>
+      <c r="I1" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="159"/>
+      <c r="J1" s="153"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="159" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="155" t="s">
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="156"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="118"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="157"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
       <c r="K13" s="119"/>
       <c r="L13" s="119"/>
       <c r="M13" s="119"/>
@@ -4388,56 +4400,56 @@
       <c r="R13" s="119"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
       <c r="K16" s="120"/>
       <c r="L16" s="120"/>
       <c r="M16" s="120"/>
@@ -4448,384 +4460,384 @@
       <c r="R16" s="120"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="151"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="151"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="151"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="147"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="163"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="163"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="150"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="148"/>
-      <c r="AG28" s="148"/>
-      <c r="AH28" s="148"/>
-      <c r="AI28" s="148"/>
-      <c r="AJ28" s="148"/>
-      <c r="AK28" s="148"/>
-      <c r="AL28" s="148"/>
-      <c r="AM28" s="148"/>
-      <c r="AN28" s="148"/>
-      <c r="AO28" s="148"/>
-      <c r="AP28" s="148"/>
-      <c r="AQ28" s="148"/>
-      <c r="AR28" s="148"/>
-      <c r="AS28" s="148"/>
-      <c r="AT28" s="148"/>
-      <c r="AU28" s="148"/>
-      <c r="AV28" s="148"/>
-      <c r="AW28" s="148"/>
-      <c r="AX28" s="148"/>
-      <c r="AY28" s="148"/>
-      <c r="AZ28" s="148"/>
-      <c r="BA28" s="148"/>
-      <c r="BB28" s="148"/>
-      <c r="BC28" s="148"/>
-      <c r="BD28" s="148"/>
-      <c r="BE28" s="148"/>
-      <c r="BF28" s="148"/>
-      <c r="BG28" s="148"/>
-      <c r="BH28" s="148"/>
-      <c r="BI28" s="148"/>
-      <c r="BJ28" s="148"/>
-      <c r="BK28" s="148"/>
-      <c r="BL28" s="148"/>
-      <c r="BM28" s="148"/>
-      <c r="BN28" s="148"/>
-      <c r="BO28" s="148"/>
-      <c r="BP28" s="148"/>
-      <c r="BQ28" s="148"/>
-      <c r="BR28" s="148"/>
-      <c r="BS28" s="148"/>
-      <c r="BT28" s="148"/>
-      <c r="BU28" s="148"/>
-      <c r="BV28" s="148"/>
-      <c r="BW28" s="148"/>
-      <c r="BX28" s="148"/>
-      <c r="BY28" s="148"/>
-      <c r="BZ28" s="148"/>
-      <c r="CA28" s="148"/>
-      <c r="CB28" s="148"/>
-      <c r="CC28" s="148"/>
-      <c r="CD28" s="148"/>
-      <c r="CE28" s="148"/>
-      <c r="CF28" s="148"/>
-      <c r="CG28" s="148"/>
-      <c r="CH28" s="148"/>
-      <c r="CI28" s="148"/>
-      <c r="CJ28" s="148"/>
-      <c r="CK28" s="148"/>
-      <c r="CL28" s="148"/>
-      <c r="CM28" s="148"/>
-      <c r="CN28" s="148"/>
-      <c r="CO28" s="148"/>
-      <c r="CP28" s="148"/>
-      <c r="CQ28" s="148"/>
-      <c r="CR28" s="148"/>
-      <c r="CS28" s="148"/>
-      <c r="CT28" s="148"/>
-      <c r="CU28" s="148"/>
-      <c r="CV28" s="148"/>
-      <c r="CW28" s="148"/>
-      <c r="CX28" s="148"/>
-      <c r="CY28" s="148"/>
-      <c r="CZ28" s="148"/>
-      <c r="DA28" s="148"/>
-      <c r="DB28" s="148"/>
-      <c r="DC28" s="148"/>
-      <c r="DD28" s="148"/>
-      <c r="DE28" s="148"/>
-      <c r="DF28" s="148"/>
-      <c r="DG28" s="148"/>
-      <c r="DH28" s="148"/>
-      <c r="DI28" s="148"/>
-      <c r="DJ28" s="148"/>
-      <c r="DK28" s="148"/>
-      <c r="DL28" s="148"/>
-      <c r="DM28" s="148"/>
-      <c r="DN28" s="148"/>
-      <c r="DO28" s="148"/>
-      <c r="DP28" s="148"/>
-      <c r="DQ28" s="148"/>
-      <c r="DR28" s="148"/>
-      <c r="DS28" s="148"/>
-      <c r="DT28" s="148"/>
-      <c r="DU28" s="148"/>
-      <c r="DV28" s="148"/>
-      <c r="DW28" s="148"/>
-      <c r="DX28" s="148"/>
-      <c r="DY28" s="148"/>
-      <c r="DZ28" s="148"/>
-      <c r="EA28" s="148"/>
-      <c r="EB28" s="148"/>
-      <c r="EC28" s="148"/>
-      <c r="ED28" s="148"/>
-      <c r="EE28" s="148"/>
-      <c r="EF28" s="148"/>
-      <c r="EG28" s="148"/>
-      <c r="EH28" s="148"/>
-      <c r="EI28" s="148"/>
-      <c r="EJ28" s="148"/>
-      <c r="EK28" s="148"/>
-      <c r="EL28" s="148"/>
-      <c r="EM28" s="148"/>
-      <c r="EN28" s="148"/>
-      <c r="EO28" s="148"/>
-      <c r="EP28" s="148"/>
-      <c r="EQ28" s="148"/>
-      <c r="ER28" s="148"/>
-      <c r="ES28" s="148"/>
-      <c r="ET28" s="148"/>
-      <c r="EU28" s="148"/>
-      <c r="EV28" s="148"/>
-      <c r="EW28" s="148"/>
-      <c r="EX28" s="148"/>
-      <c r="EY28" s="148"/>
-      <c r="EZ28" s="148"/>
-      <c r="FA28" s="148"/>
-      <c r="FB28" s="148"/>
-      <c r="FC28" s="148"/>
-      <c r="FD28" s="148"/>
-      <c r="FE28" s="148"/>
-      <c r="FF28" s="148"/>
-      <c r="FG28" s="148"/>
-      <c r="FH28" s="148"/>
-      <c r="FI28" s="148"/>
-      <c r="FJ28" s="148"/>
-      <c r="FK28" s="148"/>
-      <c r="FL28" s="148"/>
-      <c r="FM28" s="148"/>
-      <c r="FN28" s="148"/>
-      <c r="FO28" s="148"/>
-      <c r="FP28" s="148"/>
-      <c r="FQ28" s="148"/>
-      <c r="FR28" s="148"/>
-      <c r="FS28" s="148"/>
-      <c r="FT28" s="148"/>
-      <c r="FU28" s="148"/>
-      <c r="FV28" s="148"/>
-      <c r="FW28" s="148"/>
-      <c r="FX28" s="148"/>
-      <c r="FY28" s="148"/>
-      <c r="FZ28" s="148"/>
-      <c r="GA28" s="148"/>
-      <c r="GB28" s="148"/>
-      <c r="GC28" s="148"/>
-      <c r="GD28" s="148"/>
-      <c r="GE28" s="148"/>
-      <c r="GF28" s="148"/>
-      <c r="GG28" s="148"/>
-      <c r="GH28" s="148"/>
-      <c r="GI28" s="148"/>
-      <c r="GJ28" s="148"/>
-      <c r="GK28" s="148"/>
-      <c r="GL28" s="148"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="166"/>
+      <c r="W28" s="166"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="166"/>
+      <c r="Z28" s="166"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="166"/>
+      <c r="AC28" s="166"/>
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="166"/>
+      <c r="AG28" s="166"/>
+      <c r="AH28" s="166"/>
+      <c r="AI28" s="166"/>
+      <c r="AJ28" s="166"/>
+      <c r="AK28" s="166"/>
+      <c r="AL28" s="166"/>
+      <c r="AM28" s="166"/>
+      <c r="AN28" s="166"/>
+      <c r="AO28" s="166"/>
+      <c r="AP28" s="166"/>
+      <c r="AQ28" s="166"/>
+      <c r="AR28" s="166"/>
+      <c r="AS28" s="166"/>
+      <c r="AT28" s="166"/>
+      <c r="AU28" s="166"/>
+      <c r="AV28" s="166"/>
+      <c r="AW28" s="166"/>
+      <c r="AX28" s="166"/>
+      <c r="AY28" s="166"/>
+      <c r="AZ28" s="166"/>
+      <c r="BA28" s="166"/>
+      <c r="BB28" s="166"/>
+      <c r="BC28" s="166"/>
+      <c r="BD28" s="166"/>
+      <c r="BE28" s="166"/>
+      <c r="BF28" s="166"/>
+      <c r="BG28" s="166"/>
+      <c r="BH28" s="166"/>
+      <c r="BI28" s="166"/>
+      <c r="BJ28" s="166"/>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="166"/>
+      <c r="BM28" s="166"/>
+      <c r="BN28" s="166"/>
+      <c r="BO28" s="166"/>
+      <c r="BP28" s="166"/>
+      <c r="BQ28" s="166"/>
+      <c r="BR28" s="166"/>
+      <c r="BS28" s="166"/>
+      <c r="BT28" s="166"/>
+      <c r="BU28" s="166"/>
+      <c r="BV28" s="166"/>
+      <c r="BW28" s="166"/>
+      <c r="BX28" s="166"/>
+      <c r="BY28" s="166"/>
+      <c r="BZ28" s="166"/>
+      <c r="CA28" s="166"/>
+      <c r="CB28" s="166"/>
+      <c r="CC28" s="166"/>
+      <c r="CD28" s="166"/>
+      <c r="CE28" s="166"/>
+      <c r="CF28" s="166"/>
+      <c r="CG28" s="166"/>
+      <c r="CH28" s="166"/>
+      <c r="CI28" s="166"/>
+      <c r="CJ28" s="166"/>
+      <c r="CK28" s="166"/>
+      <c r="CL28" s="166"/>
+      <c r="CM28" s="166"/>
+      <c r="CN28" s="166"/>
+      <c r="CO28" s="166"/>
+      <c r="CP28" s="166"/>
+      <c r="CQ28" s="166"/>
+      <c r="CR28" s="166"/>
+      <c r="CS28" s="166"/>
+      <c r="CT28" s="166"/>
+      <c r="CU28" s="166"/>
+      <c r="CV28" s="166"/>
+      <c r="CW28" s="166"/>
+      <c r="CX28" s="166"/>
+      <c r="CY28" s="166"/>
+      <c r="CZ28" s="166"/>
+      <c r="DA28" s="166"/>
+      <c r="DB28" s="166"/>
+      <c r="DC28" s="166"/>
+      <c r="DD28" s="166"/>
+      <c r="DE28" s="166"/>
+      <c r="DF28" s="166"/>
+      <c r="DG28" s="166"/>
+      <c r="DH28" s="166"/>
+      <c r="DI28" s="166"/>
+      <c r="DJ28" s="166"/>
+      <c r="DK28" s="166"/>
+      <c r="DL28" s="166"/>
+      <c r="DM28" s="166"/>
+      <c r="DN28" s="166"/>
+      <c r="DO28" s="166"/>
+      <c r="DP28" s="166"/>
+      <c r="DQ28" s="166"/>
+      <c r="DR28" s="166"/>
+      <c r="DS28" s="166"/>
+      <c r="DT28" s="166"/>
+      <c r="DU28" s="166"/>
+      <c r="DV28" s="166"/>
+      <c r="DW28" s="166"/>
+      <c r="DX28" s="166"/>
+      <c r="DY28" s="166"/>
+      <c r="DZ28" s="166"/>
+      <c r="EA28" s="166"/>
+      <c r="EB28" s="166"/>
+      <c r="EC28" s="166"/>
+      <c r="ED28" s="166"/>
+      <c r="EE28" s="166"/>
+      <c r="EF28" s="166"/>
+      <c r="EG28" s="166"/>
+      <c r="EH28" s="166"/>
+      <c r="EI28" s="166"/>
+      <c r="EJ28" s="166"/>
+      <c r="EK28" s="166"/>
+      <c r="EL28" s="166"/>
+      <c r="EM28" s="166"/>
+      <c r="EN28" s="166"/>
+      <c r="EO28" s="166"/>
+      <c r="EP28" s="166"/>
+      <c r="EQ28" s="166"/>
+      <c r="ER28" s="166"/>
+      <c r="ES28" s="166"/>
+      <c r="ET28" s="166"/>
+      <c r="EU28" s="166"/>
+      <c r="EV28" s="166"/>
+      <c r="EW28" s="166"/>
+      <c r="EX28" s="166"/>
+      <c r="EY28" s="166"/>
+      <c r="EZ28" s="166"/>
+      <c r="FA28" s="166"/>
+      <c r="FB28" s="166"/>
+      <c r="FC28" s="166"/>
+      <c r="FD28" s="166"/>
+      <c r="FE28" s="166"/>
+      <c r="FF28" s="166"/>
+      <c r="FG28" s="166"/>
+      <c r="FH28" s="166"/>
+      <c r="FI28" s="166"/>
+      <c r="FJ28" s="166"/>
+      <c r="FK28" s="166"/>
+      <c r="FL28" s="166"/>
+      <c r="FM28" s="166"/>
+      <c r="FN28" s="166"/>
+      <c r="FO28" s="166"/>
+      <c r="FP28" s="166"/>
+      <c r="FQ28" s="166"/>
+      <c r="FR28" s="166"/>
+      <c r="FS28" s="166"/>
+      <c r="FT28" s="166"/>
+      <c r="FU28" s="166"/>
+      <c r="FV28" s="166"/>
+      <c r="FW28" s="166"/>
+      <c r="FX28" s="166"/>
+      <c r="FY28" s="166"/>
+      <c r="FZ28" s="166"/>
+      <c r="GA28" s="166"/>
+      <c r="GB28" s="166"/>
+      <c r="GC28" s="166"/>
+      <c r="GD28" s="166"/>
+      <c r="GE28" s="166"/>
+      <c r="GF28" s="166"/>
+      <c r="GG28" s="166"/>
+      <c r="GH28" s="166"/>
+      <c r="GI28" s="166"/>
+      <c r="GJ28" s="166"/>
+      <c r="GK28" s="166"/>
+      <c r="GL28" s="166"/>
       <c r="GM28" s="121"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="149"/>
-      <c r="R29" s="149"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
+      <c r="A30" s="168"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
       <c r="K30" s="122"/>
       <c r="L30" s="122"/>
       <c r="M30" s="122"/>
@@ -4836,16 +4848,16 @@
       <c r="R30" s="122"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
       <c r="K31" s="122"/>
       <c r="L31" s="122"/>
       <c r="M31" s="122"/>
@@ -4857,6 +4869,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4870,28 +4904,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4918,14 +4930,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5118,11 +5130,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="214" t="s">
+      <c r="E27" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="216"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="222"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5446,10 +5458,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5460,7 +5472,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5474,8 +5486,8 @@
       <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5486,7 +5498,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5512,14 +5524,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
     </row>
     <row r="5" spans="1:10" ht="33" customHeight="1">
       <c r="A5" s="40">
@@ -5534,14 +5546,14 @@
       <c r="D5" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="178" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="E5" s="177" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5568,12 +5580,12 @@
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5584,12 +5596,12 @@
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5600,12 +5612,12 @@
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5616,12 +5628,12 @@
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5632,12 +5644,12 @@
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5648,12 +5660,12 @@
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5664,12 +5676,12 @@
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5680,12 +5692,12 @@
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="171"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5696,12 +5708,12 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5712,12 +5724,12 @@
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5728,12 +5740,12 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5744,12 +5756,12 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5760,12 +5772,12 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5776,12 +5788,12 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5792,12 +5804,12 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5808,12 +5820,12 @@
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5824,12 +5836,12 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5840,12 +5852,12 @@
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5856,12 +5868,12 @@
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5872,12 +5884,12 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5888,12 +5900,12 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5904,12 +5916,12 @@
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -5920,12 +5932,12 @@
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -5936,12 +5948,12 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -5952,12 +5964,12 @@
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -5968,12 +5980,12 @@
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -5984,12 +5996,12 @@
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6000,12 +6012,12 @@
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6016,12 +6028,12 @@
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6032,12 +6044,12 @@
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="169"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6048,12 +6060,12 @@
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6064,12 +6076,12 @@
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6080,12 +6092,12 @@
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="169"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6096,12 +6108,12 @@
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6112,12 +6124,12 @@
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="169"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="169"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6128,23 +6140,32 @@
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="169"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6160,23 +6181,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6214,16 +6226,16 @@
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="47" style="22" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6251,8 +6263,8 @@
       <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6305,7 +6317,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="191" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J5" s="192"/>
     </row>
@@ -6393,7 +6405,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="185" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" s="186"/>
     </row>
@@ -6809,7 +6821,7 @@
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="140" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="139" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
@@ -6825,12 +6837,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6838,15 +6850,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="197" t="s">
+      <c r="G1" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="198"/>
-      <c r="I1" s="199" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="200"/>
-      <c r="K1" s="201"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="205" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="206"/>
+      <c r="K1" s="207"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6860,10 +6872,10 @@
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6871,16 +6883,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="199" t="str">
+      <c r="H2" s="204"/>
+      <c r="I2" s="205" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo KH không phát sinh đơn hàng</v>
       </c>
-      <c r="J2" s="200"/>
-      <c r="K2" s="201"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="207"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6950,7 +6962,7 @@
       <c r="C5" s="35">
         <v>1</v>
       </c>
-      <c r="D5" s="132" t="str">
+      <c r="D5" s="131" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo KH không phát sinh đơn hàng</v>
       </c>
@@ -6982,12 +6994,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="132"/>
+        <v>177</v>
+      </c>
+      <c r="F6" s="131"/>
       <c r="G6" s="40" t="s">
         <v>163</v>
       </c>
@@ -7011,17 +7023,17 @@
       <c r="B7" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="136">
+      <c r="C7" s="135">
         <v>3</v>
       </c>
-      <c r="D7" s="138" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="131" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="135" t="s">
-        <v>199</v>
+      <c r="D7" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="130" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="134" t="s">
+        <v>197</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>163</v>
@@ -7046,17 +7058,17 @@
       <c r="B8" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="135">
         <v>4</v>
       </c>
-      <c r="D8" s="138" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="135" t="s">
-        <v>200</v>
+      <c r="D8" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="134" t="s">
+        <v>198</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>163</v>
@@ -7082,14 +7094,14 @@
       <c r="C9" s="35">
         <v>5</v>
       </c>
-      <c r="D9" s="138" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="135" t="s">
-        <v>201</v>
+      <c r="D9" s="137" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>199</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>163</v>
@@ -7117,14 +7129,14 @@
       <c r="C10" s="35">
         <v>6</v>
       </c>
-      <c r="D10" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="135" t="s">
-        <v>202</v>
+      <c r="D10" s="137" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>200</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>163</v>
@@ -7149,17 +7161,17 @@
       <c r="B11" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="136">
+      <c r="C11" s="135">
         <v>7</v>
       </c>
-      <c r="D11" s="138" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="135" t="s">
-        <v>203</v>
+      <c r="D11" s="137" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="134" t="s">
+        <v>201</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>163</v>
@@ -7184,16 +7196,16 @@
       <c r="B12" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="136">
+      <c r="C12" s="135">
         <v>8</v>
       </c>
-      <c r="D12" s="138" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="131" t="s">
-        <v>210</v>
-      </c>
-      <c r="F12" s="135"/>
+      <c r="D12" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="134"/>
       <c r="G12" s="40" t="s">
         <v>163</v>
       </c>
@@ -7217,17 +7229,17 @@
       <c r="B13" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="136">
+      <c r="C13" s="135">
         <v>8.1</v>
       </c>
-      <c r="D13" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="135" t="s">
-        <v>204</v>
+      <c r="D13" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>202</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>163</v>
@@ -7252,17 +7264,17 @@
       <c r="B14" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="136">
+      <c r="C14" s="135">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D14" s="138" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="135" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="135" t="s">
-        <v>205</v>
+      <c r="D14" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="134" t="s">
+        <v>203</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>163</v>
@@ -7285,17 +7297,17 @@
       <c r="B15" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="136">
+      <c r="C15" s="135">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D15" s="138" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="131" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="135" t="s">
-        <v>206</v>
+      <c r="D15" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="134" t="s">
+        <v>204</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>163</v>
@@ -7320,17 +7332,17 @@
       <c r="B16" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="136">
+      <c r="C16" s="135">
         <v>8</v>
       </c>
-      <c r="D16" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="135" t="s">
-        <v>207</v>
+      <c r="D16" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>205</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>163</v>
@@ -7355,17 +7367,17 @@
       <c r="B17" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="135">
         <v>8.5</v>
       </c>
-      <c r="D17" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="135" t="s">
-        <v>208</v>
+      <c r="D17" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="134" t="s">
+        <v>206</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>163</v>
@@ -7390,17 +7402,17 @@
       <c r="B18" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="136">
+      <c r="C18" s="135">
         <v>9</v>
       </c>
-      <c r="D18" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="135" t="s">
-        <v>209</v>
+      <c r="D18" s="137" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="134" t="s">
+        <v>207</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>163</v>
@@ -7425,16 +7437,16 @@
       <c r="B19" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="137">
+      <c r="C19" s="136">
         <v>10</v>
       </c>
-      <c r="D19" s="138" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="131" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="135"/>
+      <c r="D19" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="134"/>
       <c r="G19" s="40" t="s">
         <v>163</v>
       </c>
@@ -7458,17 +7470,17 @@
       <c r="B20" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="137">
+      <c r="C20" s="136">
         <v>10.1</v>
       </c>
-      <c r="D20" s="138" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="145" t="s">
-        <v>217</v>
+      <c r="D20" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="144" t="s">
+        <v>214</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>163</v>
@@ -7496,14 +7508,14 @@
       <c r="C21" s="35">
         <v>10.199999999999999</v>
       </c>
-      <c r="D21" s="139" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="145" t="s">
-        <v>218</v>
+      <c r="D21" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="144" t="s">
+        <v>215</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>163</v>
@@ -7529,14 +7541,14 @@
       <c r="C22" s="35">
         <v>10.3</v>
       </c>
-      <c r="D22" s="138" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="134" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="146" t="s">
-        <v>219</v>
+      <c r="D22" s="137" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="145" t="s">
+        <v>216</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>163</v>
@@ -7564,14 +7576,14 @@
       <c r="C23" s="35">
         <v>11</v>
       </c>
-      <c r="D23" s="138" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="217" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" s="218" t="s">
-        <v>221</v>
+      <c r="D23" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="197" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="200" t="s">
+        <v>218</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>163</v>
@@ -7599,11 +7611,11 @@
       <c r="C24" s="35">
         <v>12</v>
       </c>
-      <c r="D24" s="138" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="219"/>
-      <c r="F24" s="220"/>
+      <c r="D24" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="198"/>
+      <c r="F24" s="201"/>
       <c r="G24" s="40" t="s">
         <v>163</v>
       </c>
@@ -7630,11 +7642,11 @@
       <c r="C25" s="35">
         <v>13</v>
       </c>
-      <c r="D25" s="138" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="219"/>
-      <c r="F25" s="220"/>
+      <c r="D25" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="198"/>
+      <c r="F25" s="201"/>
       <c r="G25" s="40" t="s">
         <v>163</v>
       </c>
@@ -7661,11 +7673,11 @@
       <c r="C26" s="35">
         <v>14</v>
       </c>
-      <c r="D26" s="138" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="221"/>
-      <c r="F26" s="222"/>
+      <c r="D26" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="199"/>
+      <c r="F26" s="202"/>
       <c r="G26" s="40" t="s">
         <v>163</v>
       </c>
@@ -7688,9 +7700,9 @@
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
@@ -7707,9 +7719,9 @@
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -7726,9 +7738,9 @@
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
@@ -7745,9 +7757,9 @@
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
@@ -7764,9 +7776,9 @@
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="35"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
@@ -7783,9 +7795,9 @@
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
@@ -7802,9 +7814,9 @@
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
@@ -7821,9 +7833,9 @@
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
@@ -7840,7 +7852,7 @@
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="132"/>
+      <c r="D35" s="131"/>
       <c r="E35" s="70"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -7859,7 +7871,7 @@
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="132"/>
+      <c r="D36" s="131"/>
       <c r="E36" s="70"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
@@ -7878,7 +7890,7 @@
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="132"/>
+      <c r="D37" s="131"/>
       <c r="E37" s="70"/>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
@@ -7897,7 +7909,7 @@
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="132"/>
+      <c r="D38" s="131"/>
       <c r="E38" s="70"/>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -7916,7 +7928,7 @@
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="132"/>
+      <c r="D39" s="131"/>
       <c r="E39" s="70"/>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
@@ -7935,7 +7947,7 @@
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="132"/>
+      <c r="D40" s="131"/>
       <c r="E40" s="70"/>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
@@ -7954,7 +7966,7 @@
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="132"/>
+      <c r="D41" s="131"/>
       <c r="E41" s="70"/>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
@@ -7973,7 +7985,7 @@
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="132"/>
+      <c r="D42" s="131"/>
       <c r="E42" s="70"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
@@ -7992,7 +8004,7 @@
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="132"/>
+      <c r="D43" s="131"/>
       <c r="E43" s="70"/>
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
@@ -8011,7 +8023,7 @@
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="132"/>
+      <c r="D44" s="131"/>
       <c r="E44" s="70"/>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -8030,7 +8042,7 @@
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="35"/>
-      <c r="D45" s="132"/>
+      <c r="D45" s="131"/>
       <c r="E45" s="70"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -8049,7 +8061,7 @@
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="35"/>
-      <c r="D46" s="132"/>
+      <c r="D46" s="131"/>
       <c r="E46" s="70"/>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -8068,7 +8080,7 @@
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="35"/>
-      <c r="D47" s="132"/>
+      <c r="D47" s="131"/>
       <c r="E47" s="70"/>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -8087,7 +8099,7 @@
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="132"/>
+      <c r="D48" s="131"/>
       <c r="E48" s="75"/>
       <c r="F48" s="75"/>
       <c r="G48" s="40"/>
@@ -8106,7 +8118,7 @@
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="35"/>
-      <c r="D49" s="132"/>
+      <c r="D49" s="131"/>
       <c r="E49" s="75"/>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
@@ -8125,7 +8137,7 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="35"/>
-      <c r="D50" s="132"/>
+      <c r="D50" s="131"/>
       <c r="E50" s="75"/>
       <c r="F50" s="75"/>
       <c r="G50" s="40"/>
@@ -8144,7 +8156,7 @@
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="35"/>
-      <c r="D51" s="132"/>
+      <c r="D51" s="131"/>
       <c r="E51" s="75"/>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
@@ -8163,7 +8175,7 @@
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="35"/>
-      <c r="D52" s="132"/>
+      <c r="D52" s="131"/>
       <c r="E52" s="75"/>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
@@ -8182,7 +8194,7 @@
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="35"/>
-      <c r="D53" s="132"/>
+      <c r="D53" s="131"/>
       <c r="E53" s="75"/>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -8201,7 +8213,7 @@
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="35"/>
-      <c r="D54" s="132"/>
+      <c r="D54" s="131"/>
       <c r="E54" s="75"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
@@ -8216,13 +8228,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M25:N54 L24:M24">
@@ -8249,7 +8261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G29" sqref="G29:G30"/>
     </sheetView>
   </sheetViews>
@@ -9234,7 +9246,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="125"/>
@@ -9267,7 +9279,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="205"/>
+      <c r="A2" s="214"/>
       <c r="B2" s="126"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9313,15 +9325,15 @@
       <c r="E4" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176" t="s">
+      <c r="G4" s="175"/>
+      <c r="H4" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="33">
@@ -9331,19 +9343,19 @@
         <v>162</v>
       </c>
       <c r="C5" s="33"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="129" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="F5" s="202" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="203"/>
-      <c r="H5" s="206" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="207"/>
-      <c r="J5" s="208"/>
+      <c r="F5" s="211" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="212"/>
+      <c r="H5" s="208" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="209"/>
+      <c r="J5" s="210"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9353,11 +9365,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="208"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="210"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9367,11 +9379,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="208"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="210"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9381,11 +9393,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="208"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="210"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9395,11 +9407,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="210"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9409,11 +9421,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="208"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="210"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9423,11 +9435,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="208"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="210"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9437,11 +9449,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="208"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="210"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9451,11 +9463,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="210"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9465,11 +9477,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="208"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="210"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9479,11 +9491,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="210"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9493,11 +9505,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="210"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9507,11 +9519,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="210"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9521,11 +9533,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="210"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9535,11 +9547,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="210"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9549,11 +9561,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="208"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="210"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9563,11 +9575,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="208"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="210"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9577,11 +9589,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="210"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9591,11 +9603,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="210"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9605,11 +9617,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="210"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9619,11 +9631,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="210"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9633,11 +9645,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="210"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9647,11 +9659,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="210"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9661,11 +9673,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="210"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9675,11 +9687,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="208"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="210"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9689,11 +9701,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="210"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9703,11 +9715,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="210"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9717,11 +9729,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="210"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9738,11 +9750,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="210"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9759,11 +9771,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="210"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9780,11 +9792,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="210"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9801,11 +9813,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="208"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="210"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9822,11 +9834,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="210"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9843,11 +9855,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="208"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="210"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9864,11 +9876,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="210"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9885,11 +9897,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="209"/>
+      <c r="J40" s="210"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9906,11 +9918,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="206"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="210"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9927,11 +9939,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="208"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="209"/>
+      <c r="J42" s="210"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9948,11 +9960,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="208"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="208"/>
+      <c r="I43" s="209"/>
+      <c r="J43" s="210"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9969,11 +9981,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="206"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="208"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="209"/>
+      <c r="J44" s="210"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9990,11 +10002,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="207"/>
-      <c r="J45" s="208"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="208"/>
+      <c r="I45" s="209"/>
+      <c r="J45" s="210"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -10011,11 +10023,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="172"/>
-      <c r="H46" s="206"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="208"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="208"/>
+      <c r="I46" s="209"/>
+      <c r="J46" s="210"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10032,11 +10044,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="172"/>
-      <c r="H47" s="206"/>
-      <c r="I47" s="207"/>
-      <c r="J47" s="208"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="208"/>
+      <c r="I47" s="209"/>
+      <c r="J47" s="210"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10053,11 +10065,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="208"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="208"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="210"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10074,11 +10086,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="208"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="208"/>
+      <c r="I49" s="209"/>
+      <c r="J49" s="210"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10095,11 +10107,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="206"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="208"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="209"/>
+      <c r="J50" s="210"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10116,11 +10128,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="172"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="208"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="208"/>
+      <c r="I51" s="209"/>
+      <c r="J51" s="210"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10137,11 +10149,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="172"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="208"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="208"/>
+      <c r="I52" s="209"/>
+      <c r="J52" s="210"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10158,11 +10170,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="206"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="208"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="208"/>
+      <c r="I53" s="209"/>
+      <c r="J53" s="210"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10179,11 +10191,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="206"/>
-      <c r="I54" s="207"/>
-      <c r="J54" s="208"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="208"/>
+      <c r="I54" s="209"/>
+      <c r="J54" s="210"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10200,11 +10212,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="206"/>
-      <c r="I55" s="207"/>
-      <c r="J55" s="208"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="208"/>
+      <c r="I55" s="209"/>
+      <c r="J55" s="210"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10221,11 +10233,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="172"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="207"/>
-      <c r="J56" s="208"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="208"/>
+      <c r="I56" s="209"/>
+      <c r="J56" s="210"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10237,6 +10249,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10251,99 +10356,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10362,7 +10374,7 @@
   <dimension ref="A1:T1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:M5"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10381,7 +10393,8 @@
     <col min="12" max="12" width="15.28515625" style="23" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" style="23" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="23" customWidth="1"/>
-    <col min="15" max="17" width="14.140625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="23" customWidth="1"/>
+    <col min="16" max="17" width="14.140625" style="23" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" style="23" customWidth="1"/>
     <col min="19" max="20" width="12.7109375" style="23" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" style="22" customWidth="1"/>
@@ -10389,23 +10402,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="212" t="str">
+      <c r="I1" s="218" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="212"/>
+      <c r="J1" s="218"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10430,21 +10443,21 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="212" t="str">
+      <c r="I2" s="218" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="J2" s="212"/>
+      <c r="J2" s="218"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10518,7 +10531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="34" customFormat="1" ht="112.5">
+    <row r="5" spans="1:20" s="34" customFormat="1" ht="138.75" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -10529,7 +10542,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
       <c r="F5" s="88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="62" t="s">
         <v>166</v>
@@ -10537,29 +10550,29 @@
       <c r="H5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="209" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="127" t="s">
+      <c r="J5" s="215" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="O5" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="O5" s="127" t="s">
+      <c r="Q5" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="P5" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="R5" s="128" t="s">
-        <v>214</v>
+      <c r="R5" s="127" t="s">
+        <v>212</v>
       </c>
       <c r="S5" s="63"/>
       <c r="T5" s="63"/>
@@ -10576,10 +10589,10 @@
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
       <c r="I6" s="83"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="211"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="217"/>
       <c r="N6" s="88"/>
       <c r="O6" s="89"/>
       <c r="P6" s="77"/>
@@ -10600,15 +10613,15 @@
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
       <c r="I7" s="83"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="211"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
       <c r="N7" s="89"/>
       <c r="O7" s="89"/>
       <c r="P7" s="77"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="144"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="143"/>
       <c r="S7" s="63"/>
       <c r="T7" s="63"/>
     </row>
@@ -10624,15 +10637,15 @@
       <c r="G8" s="62"/>
       <c r="H8" s="62"/>
       <c r="I8" s="83"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
-      <c r="M8" s="211"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="217"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="77"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="144"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="143"/>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
     </row>
@@ -10648,15 +10661,15 @@
       <c r="G9" s="62"/>
       <c r="H9" s="62"/>
       <c r="I9" s="83"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="211"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="216"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="217"/>
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
       <c r="P9" s="77"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="143"/>
       <c r="S9" s="63"/>
       <c r="T9" s="63"/>
     </row>
@@ -10672,15 +10685,15 @@
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
       <c r="I10" s="83"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="211"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="217"/>
       <c r="N10" s="89"/>
       <c r="O10" s="89"/>
       <c r="P10" s="77"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="144"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="143"/>
       <c r="S10" s="63"/>
       <c r="T10" s="63"/>
     </row>
@@ -10696,15 +10709,15 @@
       <c r="G11" s="62"/>
       <c r="H11" s="62"/>
       <c r="I11" s="83"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="211"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="216"/>
+      <c r="M11" s="217"/>
       <c r="N11" s="89"/>
       <c r="O11" s="89"/>
       <c r="P11" s="77"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="144"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="143"/>
       <c r="S11" s="63"/>
       <c r="T11" s="63"/>
     </row>
@@ -10720,15 +10733,15 @@
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
       <c r="I12" s="83"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="211"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="216"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="217"/>
       <c r="N12" s="86"/>
       <c r="O12" s="86"/>
       <c r="P12" s="77"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="144"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="143"/>
       <c r="S12" s="63"/>
       <c r="T12" s="63"/>
     </row>
@@ -10744,15 +10757,15 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="83"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="211"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="217"/>
       <c r="N13" s="86"/>
       <c r="O13" s="86"/>
       <c r="P13" s="77"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="144"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="143"/>
       <c r="S13" s="63"/>
       <c r="T13" s="63"/>
     </row>
@@ -10768,15 +10781,15 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="83"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="211"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="217"/>
       <c r="N14" s="82"/>
       <c r="O14" s="82"/>
       <c r="P14" s="77"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="139"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="138"/>
       <c r="S14" s="63"/>
       <c r="T14" s="63"/>
     </row>
@@ -10792,10 +10805,10 @@
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="210"/>
-      <c r="M15" s="211"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="216"/>
+      <c r="L15" s="216"/>
+      <c r="M15" s="217"/>
       <c r="N15" s="82"/>
       <c r="O15" s="82"/>
       <c r="P15" s="77"/>
@@ -10816,10 +10829,10 @@
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="210"/>
-      <c r="L16" s="210"/>
-      <c r="M16" s="211"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="216"/>
+      <c r="M16" s="217"/>
       <c r="N16" s="73"/>
       <c r="O16" s="59"/>
       <c r="P16" s="77"/>
@@ -10840,10 +10853,10 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="210"/>
-      <c r="M17" s="211"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="216"/>
+      <c r="M17" s="217"/>
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
       <c r="P17" s="77"/>
@@ -10864,10 +10877,10 @@
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
-      <c r="M18" s="211"/>
+      <c r="J18" s="215"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="216"/>
+      <c r="M18" s="217"/>
       <c r="N18" s="59"/>
       <c r="O18" s="59"/>
       <c r="P18" s="77"/>
@@ -10888,10 +10901,10 @@
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="210"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="211"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="217"/>
       <c r="N19" s="59"/>
       <c r="O19" s="59"/>
       <c r="P19" s="77"/>
@@ -10912,10 +10925,10 @@
       <c r="G20" s="62"/>
       <c r="H20" s="62"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="211"/>
+      <c r="J20" s="215"/>
+      <c r="K20" s="216"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="217"/>
       <c r="N20" s="59"/>
       <c r="O20" s="59"/>
       <c r="P20" s="77"/>
@@ -10936,10 +10949,10 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="210"/>
-      <c r="L21" s="210"/>
-      <c r="M21" s="211"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="216"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="217"/>
       <c r="N21" s="59"/>
       <c r="O21" s="59"/>
       <c r="P21" s="77"/>
@@ -10960,10 +10973,10 @@
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="209"/>
-      <c r="K22" s="210"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="211"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="217"/>
       <c r="N22" s="59"/>
       <c r="O22" s="59"/>
       <c r="P22" s="77"/>
@@ -10984,10 +10997,10 @@
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="211"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="216"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="217"/>
       <c r="N23" s="59"/>
       <c r="O23" s="59"/>
       <c r="P23" s="77"/>
@@ -11008,10 +11021,10 @@
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="210"/>
-      <c r="L24" s="210"/>
-      <c r="M24" s="211"/>
+      <c r="J24" s="215"/>
+      <c r="K24" s="216"/>
+      <c r="L24" s="216"/>
+      <c r="M24" s="217"/>
       <c r="N24" s="59"/>
       <c r="O24" s="59"/>
       <c r="P24" s="77"/>
@@ -11032,10 +11045,10 @@
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="211"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="216"/>
+      <c r="L25" s="216"/>
+      <c r="M25" s="217"/>
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>
       <c r="P25" s="77"/>
@@ -11056,10 +11069,10 @@
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="210"/>
-      <c r="L26" s="210"/>
-      <c r="M26" s="211"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="216"/>
+      <c r="L26" s="216"/>
+      <c r="M26" s="217"/>
       <c r="N26" s="59"/>
       <c r="O26" s="59"/>
       <c r="P26" s="77"/>
@@ -11080,10 +11093,10 @@
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="210"/>
-      <c r="L27" s="210"/>
-      <c r="M27" s="211"/>
+      <c r="J27" s="215"/>
+      <c r="K27" s="216"/>
+      <c r="L27" s="216"/>
+      <c r="M27" s="217"/>
       <c r="N27" s="59"/>
       <c r="O27" s="59"/>
       <c r="P27" s="77"/>
@@ -11104,10 +11117,10 @@
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="210"/>
-      <c r="L28" s="210"/>
-      <c r="M28" s="211"/>
+      <c r="J28" s="215"/>
+      <c r="K28" s="216"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="217"/>
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
       <c r="P28" s="77"/>
@@ -11128,10 +11141,10 @@
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="209"/>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="211"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="216"/>
+      <c r="M29" s="217"/>
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
       <c r="P29" s="77"/>
@@ -11152,10 +11165,10 @@
       <c r="G30" s="62"/>
       <c r="H30" s="62"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="210"/>
-      <c r="L30" s="210"/>
-      <c r="M30" s="211"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="217"/>
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
       <c r="P30" s="77"/>
@@ -11176,10 +11189,10 @@
       <c r="G31" s="62"/>
       <c r="H31" s="62"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="210"/>
-      <c r="L31" s="210"/>
-      <c r="M31" s="211"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="216"/>
+      <c r="M31" s="217"/>
       <c r="N31" s="59"/>
       <c r="O31" s="59"/>
       <c r="P31" s="77"/>
@@ -11200,10 +11213,10 @@
       <c r="G32" s="62"/>
       <c r="H32" s="62"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="210"/>
-      <c r="L32" s="210"/>
-      <c r="M32" s="211"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="216"/>
+      <c r="L32" s="216"/>
+      <c r="M32" s="217"/>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
       <c r="P32" s="77"/>
@@ -11224,10 +11237,10 @@
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="210"/>
-      <c r="L33" s="210"/>
-      <c r="M33" s="211"/>
+      <c r="J33" s="215"/>
+      <c r="K33" s="216"/>
+      <c r="L33" s="216"/>
+      <c r="M33" s="217"/>
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="77"/>
@@ -11248,10 +11261,10 @@
       <c r="G34" s="62"/>
       <c r="H34" s="62"/>
       <c r="I34" s="83"/>
-      <c r="J34" s="209"/>
-      <c r="K34" s="210"/>
-      <c r="L34" s="210"/>
-      <c r="M34" s="211"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="216"/>
+      <c r="L34" s="216"/>
+      <c r="M34" s="217"/>
       <c r="N34" s="86"/>
       <c r="O34" s="86"/>
       <c r="P34" s="77"/>
@@ -11272,10 +11285,10 @@
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="210"/>
-      <c r="M35" s="211"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="216"/>
+      <c r="L35" s="216"/>
+      <c r="M35" s="217"/>
       <c r="N35" s="59"/>
       <c r="O35" s="59"/>
       <c r="P35" s="77"/>
@@ -11296,10 +11309,10 @@
       <c r="G36" s="62"/>
       <c r="H36" s="62"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="209"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="210"/>
-      <c r="M36" s="211"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="216"/>
+      <c r="L36" s="216"/>
+      <c r="M36" s="217"/>
       <c r="N36" s="59"/>
       <c r="O36" s="59"/>
       <c r="P36" s="77"/>
@@ -11320,10 +11333,10 @@
       <c r="G37" s="62"/>
       <c r="H37" s="62"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="210"/>
-      <c r="M37" s="211"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="217"/>
       <c r="N37" s="59"/>
       <c r="O37" s="59"/>
       <c r="P37" s="77"/>
@@ -11344,10 +11357,10 @@
       <c r="G38" s="62"/>
       <c r="H38" s="62"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="210"/>
-      <c r="L38" s="210"/>
-      <c r="M38" s="211"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="216"/>
+      <c r="L38" s="216"/>
+      <c r="M38" s="217"/>
       <c r="N38" s="59"/>
       <c r="O38" s="59"/>
       <c r="P38" s="77"/>
@@ -11368,10 +11381,10 @@
       <c r="G39" s="62"/>
       <c r="H39" s="62"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="210"/>
-      <c r="M39" s="211"/>
+      <c r="J39" s="215"/>
+      <c r="K39" s="216"/>
+      <c r="L39" s="216"/>
+      <c r="M39" s="217"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
       <c r="P39" s="77"/>
@@ -11392,10 +11405,10 @@
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="209"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
-      <c r="M40" s="211"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="216"/>
+      <c r="M40" s="217"/>
       <c r="N40" s="75"/>
       <c r="O40" s="75"/>
       <c r="P40" s="77"/>
@@ -11416,10 +11429,10 @@
       <c r="G41" s="62"/>
       <c r="H41" s="62"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="209"/>
-      <c r="K41" s="210"/>
-      <c r="L41" s="210"/>
-      <c r="M41" s="211"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="217"/>
       <c r="N41" s="75"/>
       <c r="O41" s="75"/>
       <c r="P41" s="77"/>
@@ -11440,10 +11453,10 @@
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="209"/>
-      <c r="K42" s="210"/>
-      <c r="L42" s="210"/>
-      <c r="M42" s="211"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="217"/>
       <c r="N42" s="75"/>
       <c r="O42" s="75"/>
       <c r="P42" s="77"/>
@@ -11464,10 +11477,10 @@
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="209"/>
-      <c r="K43" s="210"/>
-      <c r="L43" s="210"/>
-      <c r="M43" s="211"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="216"/>
+      <c r="L43" s="216"/>
+      <c r="M43" s="217"/>
       <c r="N43" s="75"/>
       <c r="O43" s="75"/>
       <c r="P43" s="77"/>
@@ -11488,10 +11501,10 @@
       <c r="G44" s="62"/>
       <c r="H44" s="62"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="209"/>
-      <c r="K44" s="210"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="211"/>
+      <c r="J44" s="215"/>
+      <c r="K44" s="216"/>
+      <c r="L44" s="216"/>
+      <c r="M44" s="217"/>
       <c r="N44" s="75"/>
       <c r="O44" s="75"/>
       <c r="P44" s="77"/>
@@ -11512,10 +11525,10 @@
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="209"/>
-      <c r="K45" s="210"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="211"/>
+      <c r="J45" s="215"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="216"/>
+      <c r="M45" s="217"/>
       <c r="N45" s="75"/>
       <c r="O45" s="75"/>
       <c r="P45" s="77"/>
@@ -11536,10 +11549,10 @@
       <c r="G46" s="62"/>
       <c r="H46" s="62"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="209"/>
-      <c r="K46" s="210"/>
-      <c r="L46" s="210"/>
-      <c r="M46" s="211"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="216"/>
+      <c r="L46" s="216"/>
+      <c r="M46" s="217"/>
       <c r="N46" s="75"/>
       <c r="O46" s="75"/>
       <c r="P46" s="77"/>
@@ -11560,10 +11573,10 @@
       <c r="G47" s="62"/>
       <c r="H47" s="62"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="209"/>
-      <c r="K47" s="210"/>
-      <c r="L47" s="210"/>
-      <c r="M47" s="211"/>
+      <c r="J47" s="215"/>
+      <c r="K47" s="216"/>
+      <c r="L47" s="216"/>
+      <c r="M47" s="217"/>
       <c r="N47" s="75"/>
       <c r="O47" s="75"/>
       <c r="P47" s="77"/>
@@ -11584,10 +11597,10 @@
       <c r="G48" s="62"/>
       <c r="H48" s="62"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="209"/>
-      <c r="K48" s="210"/>
-      <c r="L48" s="210"/>
-      <c r="M48" s="211"/>
+      <c r="J48" s="215"/>
+      <c r="K48" s="216"/>
+      <c r="L48" s="216"/>
+      <c r="M48" s="217"/>
       <c r="N48" s="75"/>
       <c r="O48" s="75"/>
       <c r="P48" s="77"/>
@@ -11608,10 +11621,10 @@
       <c r="G49" s="62"/>
       <c r="H49" s="62"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="209"/>
-      <c r="K49" s="210"/>
-      <c r="L49" s="210"/>
-      <c r="M49" s="211"/>
+      <c r="J49" s="215"/>
+      <c r="K49" s="216"/>
+      <c r="L49" s="216"/>
+      <c r="M49" s="217"/>
       <c r="N49" s="75"/>
       <c r="O49" s="75"/>
       <c r="P49" s="77"/>
@@ -11632,10 +11645,10 @@
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="209"/>
-      <c r="K50" s="210"/>
-      <c r="L50" s="210"/>
-      <c r="M50" s="211"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="216"/>
+      <c r="L50" s="216"/>
+      <c r="M50" s="217"/>
       <c r="N50" s="75"/>
       <c r="O50" s="75"/>
       <c r="P50" s="77"/>
@@ -11656,10 +11669,10 @@
       <c r="G51" s="62"/>
       <c r="H51" s="62"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="209"/>
-      <c r="K51" s="210"/>
-      <c r="L51" s="210"/>
-      <c r="M51" s="211"/>
+      <c r="J51" s="215"/>
+      <c r="K51" s="216"/>
+      <c r="L51" s="216"/>
+      <c r="M51" s="217"/>
       <c r="N51" s="75"/>
       <c r="O51" s="75"/>
       <c r="P51" s="77"/>
@@ -11680,10 +11693,10 @@
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="209"/>
-      <c r="K52" s="210"/>
-      <c r="L52" s="210"/>
-      <c r="M52" s="211"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="216"/>
+      <c r="L52" s="216"/>
+      <c r="M52" s="217"/>
       <c r="N52" s="75"/>
       <c r="O52" s="75"/>
       <c r="P52" s="77"/>
@@ -11704,10 +11717,10 @@
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="209"/>
-      <c r="K53" s="210"/>
-      <c r="L53" s="210"/>
-      <c r="M53" s="211"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="216"/>
+      <c r="L53" s="216"/>
+      <c r="M53" s="217"/>
       <c r="N53" s="75"/>
       <c r="O53" s="75"/>
       <c r="P53" s="77"/>
@@ -11728,10 +11741,10 @@
       <c r="G54" s="62"/>
       <c r="H54" s="62"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="209"/>
-      <c r="K54" s="210"/>
-      <c r="L54" s="210"/>
-      <c r="M54" s="211"/>
+      <c r="J54" s="215"/>
+      <c r="K54" s="216"/>
+      <c r="L54" s="216"/>
+      <c r="M54" s="217"/>
       <c r="N54" s="75"/>
       <c r="O54" s="75"/>
       <c r="P54" s="77"/>
@@ -11752,10 +11765,10 @@
       <c r="G55" s="62"/>
       <c r="H55" s="62"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="209"/>
-      <c r="K55" s="210"/>
-      <c r="L55" s="210"/>
-      <c r="M55" s="211"/>
+      <c r="J55" s="215"/>
+      <c r="K55" s="216"/>
+      <c r="L55" s="216"/>
+      <c r="M55" s="217"/>
       <c r="N55" s="75"/>
       <c r="O55" s="75"/>
       <c r="P55" s="77"/>
@@ -11776,10 +11789,10 @@
       <c r="G56" s="62"/>
       <c r="H56" s="62"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="209"/>
-      <c r="K56" s="210"/>
-      <c r="L56" s="210"/>
-      <c r="M56" s="211"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="216"/>
+      <c r="L56" s="216"/>
+      <c r="M56" s="217"/>
       <c r="N56" s="75"/>
       <c r="O56" s="75"/>
       <c r="P56" s="77"/>
@@ -11800,10 +11813,10 @@
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="209"/>
-      <c r="K57" s="210"/>
-      <c r="L57" s="210"/>
-      <c r="M57" s="211"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="216"/>
+      <c r="L57" s="216"/>
+      <c r="M57" s="217"/>
       <c r="N57" s="75"/>
       <c r="O57" s="75"/>
       <c r="P57" s="77"/>
@@ -11824,10 +11837,10 @@
       <c r="G58" s="62"/>
       <c r="H58" s="62"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="209"/>
-      <c r="K58" s="210"/>
-      <c r="L58" s="210"/>
-      <c r="M58" s="211"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="216"/>
+      <c r="L58" s="216"/>
+      <c r="M58" s="217"/>
       <c r="N58" s="75"/>
       <c r="O58" s="75"/>
       <c r="P58" s="77"/>
@@ -11848,10 +11861,10 @@
       <c r="G59" s="62"/>
       <c r="H59" s="62"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="209"/>
-      <c r="K59" s="210"/>
-      <c r="L59" s="210"/>
-      <c r="M59" s="211"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="216"/>
+      <c r="L59" s="216"/>
+      <c r="M59" s="217"/>
       <c r="N59" s="75"/>
       <c r="O59" s="75"/>
       <c r="P59" s="77"/>
@@ -11872,10 +11885,10 @@
       <c r="G60" s="62"/>
       <c r="H60" s="62"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="209"/>
-      <c r="K60" s="210"/>
-      <c r="L60" s="210"/>
-      <c r="M60" s="211"/>
+      <c r="J60" s="215"/>
+      <c r="K60" s="216"/>
+      <c r="L60" s="216"/>
+      <c r="M60" s="217"/>
       <c r="N60" s="75"/>
       <c r="O60" s="75"/>
       <c r="P60" s="77"/>
@@ -11896,10 +11909,10 @@
       <c r="G61" s="62"/>
       <c r="H61" s="62"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="209"/>
-      <c r="K61" s="210"/>
-      <c r="L61" s="210"/>
-      <c r="M61" s="211"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="216"/>
+      <c r="L61" s="216"/>
+      <c r="M61" s="217"/>
       <c r="N61" s="75"/>
       <c r="O61" s="75"/>
       <c r="P61" s="77"/>
@@ -11920,10 +11933,10 @@
       <c r="G62" s="62"/>
       <c r="H62" s="62"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="209"/>
-      <c r="K62" s="210"/>
-      <c r="L62" s="210"/>
-      <c r="M62" s="211"/>
+      <c r="J62" s="215"/>
+      <c r="K62" s="216"/>
+      <c r="L62" s="216"/>
+      <c r="M62" s="217"/>
       <c r="N62" s="85"/>
       <c r="O62" s="85"/>
       <c r="P62" s="77"/>
@@ -11944,10 +11957,10 @@
       <c r="G63" s="62"/>
       <c r="H63" s="62"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="209"/>
-      <c r="K63" s="210"/>
-      <c r="L63" s="210"/>
-      <c r="M63" s="211"/>
+      <c r="J63" s="215"/>
+      <c r="K63" s="216"/>
+      <c r="L63" s="216"/>
+      <c r="M63" s="217"/>
       <c r="N63" s="85"/>
       <c r="O63" s="85"/>
       <c r="P63" s="77"/>
@@ -11968,10 +11981,10 @@
       <c r="G64" s="62"/>
       <c r="H64" s="62"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="209"/>
-      <c r="K64" s="210"/>
-      <c r="L64" s="210"/>
-      <c r="M64" s="211"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="216"/>
+      <c r="L64" s="216"/>
+      <c r="M64" s="217"/>
       <c r="N64" s="85"/>
       <c r="O64" s="85"/>
       <c r="P64" s="77"/>
@@ -11990,10 +12003,10 @@
       <c r="G65" s="62"/>
       <c r="H65" s="62"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="209"/>
-      <c r="K65" s="210"/>
-      <c r="L65" s="210"/>
-      <c r="M65" s="211"/>
+      <c r="J65" s="215"/>
+      <c r="K65" s="216"/>
+      <c r="L65" s="216"/>
+      <c r="M65" s="217"/>
       <c r="N65" s="85"/>
       <c r="O65" s="85"/>
       <c r="P65" s="77"/>
@@ -12012,10 +12025,10 @@
       <c r="G66" s="62"/>
       <c r="H66" s="62"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="209"/>
-      <c r="K66" s="210"/>
-      <c r="L66" s="210"/>
-      <c r="M66" s="211"/>
+      <c r="J66" s="215"/>
+      <c r="K66" s="216"/>
+      <c r="L66" s="216"/>
+      <c r="M66" s="217"/>
       <c r="N66" s="85"/>
       <c r="O66" s="85"/>
       <c r="P66" s="77"/>
@@ -12034,10 +12047,10 @@
       <c r="G67" s="62"/>
       <c r="H67" s="62"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="209"/>
-      <c r="K67" s="210"/>
-      <c r="L67" s="210"/>
-      <c r="M67" s="211"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="216"/>
+      <c r="L67" s="216"/>
+      <c r="M67" s="217"/>
       <c r="N67" s="85"/>
       <c r="O67" s="85"/>
       <c r="P67" s="77"/>
@@ -12056,10 +12069,10 @@
       <c r="G68" s="62"/>
       <c r="H68" s="62"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="209"/>
-      <c r="K68" s="210"/>
-      <c r="L68" s="210"/>
-      <c r="M68" s="211"/>
+      <c r="J68" s="215"/>
+      <c r="K68" s="216"/>
+      <c r="L68" s="216"/>
+      <c r="M68" s="217"/>
       <c r="N68" s="85"/>
       <c r="O68" s="85"/>
       <c r="P68" s="77"/>
@@ -12078,10 +12091,10 @@
       <c r="G69" s="62"/>
       <c r="H69" s="62"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="209"/>
-      <c r="K69" s="210"/>
-      <c r="L69" s="210"/>
-      <c r="M69" s="211"/>
+      <c r="J69" s="215"/>
+      <c r="K69" s="216"/>
+      <c r="L69" s="216"/>
+      <c r="M69" s="217"/>
       <c r="N69" s="85"/>
       <c r="O69" s="85"/>
       <c r="P69" s="77"/>
@@ -12100,10 +12113,10 @@
       <c r="G70" s="62"/>
       <c r="H70" s="62"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="209"/>
-      <c r="K70" s="210"/>
-      <c r="L70" s="210"/>
-      <c r="M70" s="211"/>
+      <c r="J70" s="215"/>
+      <c r="K70" s="216"/>
+      <c r="L70" s="216"/>
+      <c r="M70" s="217"/>
       <c r="N70" s="85"/>
       <c r="O70" s="85"/>
       <c r="P70" s="77"/>
@@ -12122,10 +12135,10 @@
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="209"/>
-      <c r="K71" s="210"/>
-      <c r="L71" s="210"/>
-      <c r="M71" s="211"/>
+      <c r="J71" s="215"/>
+      <c r="K71" s="216"/>
+      <c r="L71" s="216"/>
+      <c r="M71" s="217"/>
       <c r="N71" s="85"/>
       <c r="O71" s="85"/>
       <c r="P71" s="77"/>
@@ -12144,10 +12157,10 @@
       <c r="G72" s="62"/>
       <c r="H72" s="62"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="209"/>
-      <c r="K72" s="210"/>
-      <c r="L72" s="210"/>
-      <c r="M72" s="211"/>
+      <c r="J72" s="215"/>
+      <c r="K72" s="216"/>
+      <c r="L72" s="216"/>
+      <c r="M72" s="217"/>
       <c r="N72" s="85"/>
       <c r="O72" s="85"/>
       <c r="P72" s="77"/>
@@ -12166,10 +12179,10 @@
       <c r="G73" s="62"/>
       <c r="H73" s="62"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="209"/>
-      <c r="K73" s="210"/>
-      <c r="L73" s="210"/>
-      <c r="M73" s="211"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="216"/>
+      <c r="L73" s="216"/>
+      <c r="M73" s="217"/>
       <c r="N73" s="85"/>
       <c r="O73" s="85"/>
       <c r="P73" s="77"/>
@@ -12188,10 +12201,10 @@
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="209"/>
-      <c r="K74" s="210"/>
-      <c r="L74" s="210"/>
-      <c r="M74" s="211"/>
+      <c r="J74" s="215"/>
+      <c r="K74" s="216"/>
+      <c r="L74" s="216"/>
+      <c r="M74" s="217"/>
       <c r="N74" s="85"/>
       <c r="O74" s="85"/>
       <c r="P74" s="77"/>
@@ -12210,10 +12223,10 @@
       <c r="G75" s="62"/>
       <c r="H75" s="62"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="209"/>
-      <c r="K75" s="210"/>
-      <c r="L75" s="210"/>
-      <c r="M75" s="211"/>
+      <c r="J75" s="215"/>
+      <c r="K75" s="216"/>
+      <c r="L75" s="216"/>
+      <c r="M75" s="217"/>
       <c r="N75" s="85"/>
       <c r="O75" s="85"/>
       <c r="P75" s="77"/>
@@ -12232,10 +12245,10 @@
       <c r="G76" s="62"/>
       <c r="H76" s="62"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="209"/>
-      <c r="K76" s="210"/>
-      <c r="L76" s="210"/>
-      <c r="M76" s="211"/>
+      <c r="J76" s="215"/>
+      <c r="K76" s="216"/>
+      <c r="L76" s="216"/>
+      <c r="M76" s="217"/>
       <c r="N76" s="85"/>
       <c r="O76" s="85"/>
       <c r="P76" s="77"/>
@@ -12254,10 +12267,10 @@
       <c r="G77" s="62"/>
       <c r="H77" s="62"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="209"/>
-      <c r="K77" s="210"/>
-      <c r="L77" s="210"/>
-      <c r="M77" s="211"/>
+      <c r="J77" s="215"/>
+      <c r="K77" s="216"/>
+      <c r="L77" s="216"/>
+      <c r="M77" s="217"/>
       <c r="N77" s="85"/>
       <c r="O77" s="85"/>
       <c r="P77" s="77"/>
@@ -12276,10 +12289,10 @@
       <c r="G78" s="62"/>
       <c r="H78" s="62"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="209"/>
-      <c r="K78" s="210"/>
-      <c r="L78" s="210"/>
-      <c r="M78" s="211"/>
+      <c r="J78" s="215"/>
+      <c r="K78" s="216"/>
+      <c r="L78" s="216"/>
+      <c r="M78" s="217"/>
       <c r="N78" s="85"/>
       <c r="O78" s="85"/>
       <c r="P78" s="77"/>
@@ -12298,10 +12311,10 @@
       <c r="G79" s="62"/>
       <c r="H79" s="62"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="209"/>
-      <c r="K79" s="210"/>
-      <c r="L79" s="210"/>
-      <c r="M79" s="211"/>
+      <c r="J79" s="215"/>
+      <c r="K79" s="216"/>
+      <c r="L79" s="216"/>
+      <c r="M79" s="217"/>
       <c r="N79" s="85"/>
       <c r="O79" s="85"/>
       <c r="P79" s="77"/>
@@ -12320,10 +12333,10 @@
       <c r="G80" s="62"/>
       <c r="H80" s="62"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="209"/>
-      <c r="K80" s="210"/>
-      <c r="L80" s="210"/>
-      <c r="M80" s="211"/>
+      <c r="J80" s="215"/>
+      <c r="K80" s="216"/>
+      <c r="L80" s="216"/>
+      <c r="M80" s="217"/>
       <c r="N80" s="85"/>
       <c r="O80" s="85"/>
       <c r="P80" s="77"/>
@@ -12342,10 +12355,10 @@
       <c r="G81" s="62"/>
       <c r="H81" s="62"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="209"/>
-      <c r="K81" s="210"/>
-      <c r="L81" s="210"/>
-      <c r="M81" s="211"/>
+      <c r="J81" s="215"/>
+      <c r="K81" s="216"/>
+      <c r="L81" s="216"/>
+      <c r="M81" s="217"/>
       <c r="N81" s="85"/>
       <c r="O81" s="85"/>
       <c r="P81" s="77"/>
@@ -12364,10 +12377,10 @@
       <c r="G82" s="62"/>
       <c r="H82" s="62"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="209"/>
-      <c r="K82" s="210"/>
-      <c r="L82" s="210"/>
-      <c r="M82" s="211"/>
+      <c r="J82" s="215"/>
+      <c r="K82" s="216"/>
+      <c r="L82" s="216"/>
+      <c r="M82" s="217"/>
       <c r="N82" s="85"/>
       <c r="O82" s="85"/>
       <c r="P82" s="77"/>
@@ -12386,10 +12399,10 @@
       <c r="G83" s="62"/>
       <c r="H83" s="62"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="209"/>
-      <c r="K83" s="210"/>
-      <c r="L83" s="210"/>
-      <c r="M83" s="211"/>
+      <c r="J83" s="215"/>
+      <c r="K83" s="216"/>
+      <c r="L83" s="216"/>
+      <c r="M83" s="217"/>
       <c r="N83" s="85"/>
       <c r="O83" s="85"/>
       <c r="P83" s="77"/>
@@ -12408,10 +12421,10 @@
       <c r="G84" s="62"/>
       <c r="H84" s="62"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="209"/>
-      <c r="K84" s="210"/>
-      <c r="L84" s="210"/>
-      <c r="M84" s="211"/>
+      <c r="J84" s="215"/>
+      <c r="K84" s="216"/>
+      <c r="L84" s="216"/>
+      <c r="M84" s="217"/>
       <c r="N84" s="85"/>
       <c r="O84" s="85"/>
       <c r="P84" s="77"/>
@@ -12430,10 +12443,10 @@
       <c r="G85" s="62"/>
       <c r="H85" s="62"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="209"/>
-      <c r="K85" s="210"/>
-      <c r="L85" s="210"/>
-      <c r="M85" s="211"/>
+      <c r="J85" s="215"/>
+      <c r="K85" s="216"/>
+      <c r="L85" s="216"/>
+      <c r="M85" s="217"/>
       <c r="N85" s="85"/>
       <c r="O85" s="85"/>
       <c r="P85" s="77"/>
@@ -12452,10 +12465,10 @@
       <c r="G86" s="62"/>
       <c r="H86" s="62"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="209"/>
-      <c r="K86" s="210"/>
-      <c r="L86" s="210"/>
-      <c r="M86" s="211"/>
+      <c r="J86" s="215"/>
+      <c r="K86" s="216"/>
+      <c r="L86" s="216"/>
+      <c r="M86" s="217"/>
       <c r="N86" s="85"/>
       <c r="O86" s="85"/>
       <c r="P86" s="77"/>
@@ -12474,10 +12487,10 @@
       <c r="G87" s="62"/>
       <c r="H87" s="62"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="209"/>
-      <c r="K87" s="210"/>
-      <c r="L87" s="210"/>
-      <c r="M87" s="211"/>
+      <c r="J87" s="215"/>
+      <c r="K87" s="216"/>
+      <c r="L87" s="216"/>
+      <c r="M87" s="217"/>
       <c r="N87" s="85"/>
       <c r="O87" s="85"/>
       <c r="P87" s="77"/>
@@ -12496,10 +12509,10 @@
       <c r="G88" s="62"/>
       <c r="H88" s="62"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="209"/>
-      <c r="K88" s="210"/>
-      <c r="L88" s="210"/>
-      <c r="M88" s="211"/>
+      <c r="J88" s="215"/>
+      <c r="K88" s="216"/>
+      <c r="L88" s="216"/>
+      <c r="M88" s="217"/>
       <c r="N88" s="85"/>
       <c r="O88" s="85"/>
       <c r="P88" s="77"/>
@@ -12518,10 +12531,10 @@
       <c r="G89" s="62"/>
       <c r="H89" s="62"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="209"/>
-      <c r="K89" s="210"/>
-      <c r="L89" s="210"/>
-      <c r="M89" s="211"/>
+      <c r="J89" s="215"/>
+      <c r="K89" s="216"/>
+      <c r="L89" s="216"/>
+      <c r="M89" s="217"/>
       <c r="N89" s="85"/>
       <c r="O89" s="85"/>
       <c r="P89" s="77"/>
@@ -12540,10 +12553,10 @@
       <c r="G90" s="62"/>
       <c r="H90" s="62"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="209"/>
-      <c r="K90" s="210"/>
-      <c r="L90" s="210"/>
-      <c r="M90" s="211"/>
+      <c r="J90" s="215"/>
+      <c r="K90" s="216"/>
+      <c r="L90" s="216"/>
+      <c r="M90" s="217"/>
       <c r="N90" s="85"/>
       <c r="O90" s="85"/>
       <c r="P90" s="77"/>
@@ -12562,10 +12575,10 @@
       <c r="G91" s="62"/>
       <c r="H91" s="62"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="209"/>
-      <c r="K91" s="210"/>
-      <c r="L91" s="210"/>
-      <c r="M91" s="211"/>
+      <c r="J91" s="215"/>
+      <c r="K91" s="216"/>
+      <c r="L91" s="216"/>
+      <c r="M91" s="217"/>
       <c r="N91" s="85"/>
       <c r="O91" s="85"/>
       <c r="P91" s="77"/>
@@ -12584,10 +12597,10 @@
       <c r="G92" s="62"/>
       <c r="H92" s="62"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="209"/>
-      <c r="K92" s="210"/>
-      <c r="L92" s="210"/>
-      <c r="M92" s="211"/>
+      <c r="J92" s="215"/>
+      <c r="K92" s="216"/>
+      <c r="L92" s="216"/>
+      <c r="M92" s="217"/>
       <c r="N92" s="85"/>
       <c r="O92" s="85"/>
       <c r="P92" s="77"/>
@@ -12606,10 +12619,10 @@
       <c r="G93" s="62"/>
       <c r="H93" s="62"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="209"/>
-      <c r="K93" s="210"/>
-      <c r="L93" s="210"/>
-      <c r="M93" s="211"/>
+      <c r="J93" s="215"/>
+      <c r="K93" s="216"/>
+      <c r="L93" s="216"/>
+      <c r="M93" s="217"/>
       <c r="N93" s="85"/>
       <c r="O93" s="85"/>
       <c r="P93" s="77"/>
@@ -12628,10 +12641,10 @@
       <c r="G94" s="62"/>
       <c r="H94" s="62"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="209"/>
-      <c r="K94" s="210"/>
-      <c r="L94" s="210"/>
-      <c r="M94" s="211"/>
+      <c r="J94" s="215"/>
+      <c r="K94" s="216"/>
+      <c r="L94" s="216"/>
+      <c r="M94" s="217"/>
       <c r="N94" s="85"/>
       <c r="O94" s="85"/>
       <c r="P94" s="77"/>
@@ -12644,47 +12657,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J71:M71"/>
     <mergeCell ref="J59:M59"/>
     <mergeCell ref="J42:M42"/>
     <mergeCell ref="J43:M43"/>
@@ -12701,43 +12710,47 @@
     <mergeCell ref="J57:M57"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
@@ -12766,7 +12779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -12783,10 +12796,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12814,8 +12827,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12924,7 +12937,7 @@
       <c r="A10" s="81"/>
       <c r="B10" s="43"/>
       <c r="C10" s="87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -13388,7 +13401,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C49" s="87"/>
       <c r="D49" s="43"/>
@@ -13886,10 +13899,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13917,8 +13930,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
